--- a/DocumentUnderstandingProcess/contentFiles/any/any/pt1/CSharp/Tests/Cache/ExportMergedDocuments_3-3.xlsx
+++ b/DocumentUnderstandingProcess/contentFiles/any/any/pt1/CSharp/Tests/Cache/ExportMergedDocuments_3-3.xlsx
@@ -140,7 +140,7 @@
     <x:t>701 Sidestreet Rd.</x:t>
   </x:si>
   <x:si>
-    <x:t>New York,NY 10007</x:t>
+    <x:t>New York, NY 10007</x:t>
   </x:si>
   <x:si>
     <x:t>123-45-6789</x:t>
